--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vcam1-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vcam1-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.972416</v>
+        <v>9.673685499999999</v>
       </c>
       <c r="H2">
-        <v>29.944832</v>
+        <v>19.347371</v>
       </c>
       <c r="I2">
-        <v>0.1033656722518704</v>
+        <v>0.115977165622779</v>
       </c>
       <c r="J2">
-        <v>0.08332290573803897</v>
+        <v>0.09051257664205575</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.370512</v>
+        <v>0.2680845</v>
       </c>
       <c r="N2">
-        <v>0.741024</v>
+        <v>0.536169</v>
       </c>
       <c r="O2">
-        <v>0.001638838393995521</v>
+        <v>0.0005812041106144338</v>
       </c>
       <c r="P2">
-        <v>0.00109315609805839</v>
+        <v>0.0003877157488557307</v>
       </c>
       <c r="Q2">
-        <v>5.547459796991999</v>
+        <v>2.59336514042475</v>
       </c>
       <c r="R2">
-        <v>22.189839187968</v>
+        <v>10.373460561699</v>
       </c>
       <c r="S2">
-        <v>0.0001693996323075228</v>
+        <v>6.740640539737016E-05</v>
       </c>
       <c r="T2">
-        <v>9.108494251548173E-05</v>
+        <v>3.509315143363637E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.972416</v>
+        <v>9.673685499999999</v>
       </c>
       <c r="H3">
-        <v>29.944832</v>
+        <v>19.347371</v>
       </c>
       <c r="I3">
-        <v>0.1033656722518704</v>
+        <v>0.115977165622779</v>
       </c>
       <c r="J3">
-        <v>0.08332290573803897</v>
+        <v>0.09051257664205575</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.040702</v>
       </c>
       <c r="O3">
-        <v>6.001065220776088E-05</v>
+        <v>2.941382252017391E-05</v>
       </c>
       <c r="P3">
-        <v>6.004345271296557E-05</v>
+        <v>2.943252297302894E-05</v>
       </c>
       <c r="Q3">
-        <v>0.2031357586773333</v>
+        <v>0.1312461157403333</v>
       </c>
       <c r="R3">
-        <v>1.218814552064</v>
+        <v>0.787476694442</v>
       </c>
       <c r="S3">
-        <v>6.203041407728396E-06</v>
+        <v>3.411331766021236E-06</v>
       </c>
       <c r="T3">
-        <v>5.00299495058883E-06</v>
+        <v>2.664013491365348E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.972416</v>
+        <v>9.673685499999999</v>
       </c>
       <c r="H4">
-        <v>29.944832</v>
+        <v>19.347371</v>
       </c>
       <c r="I4">
-        <v>0.1033656722518704</v>
+        <v>0.115977165622779</v>
       </c>
       <c r="J4">
-        <v>0.08332290573803897</v>
+        <v>0.09051257664205575</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.6539663333333</v>
+        <v>160.3781766666667</v>
       </c>
       <c r="N4">
-        <v>373.961899</v>
+        <v>481.13453</v>
       </c>
       <c r="O4">
-        <v>0.5513659638308389</v>
+        <v>0.3476980412202665</v>
       </c>
       <c r="P4">
-        <v>0.5516673283636506</v>
+        <v>0.34791909752205</v>
       </c>
       <c r="Q4">
-        <v>1866.371039992661</v>
+        <v>1551.448042136772</v>
       </c>
       <c r="R4">
-        <v>11198.22623995597</v>
+        <v>9308.68825282063</v>
       </c>
       <c r="S4">
-        <v>0.05699231350817515</v>
+        <v>0.04032503331331869</v>
       </c>
       <c r="T4">
-        <v>0.04596652480000025</v>
+        <v>0.03149105397969942</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.972416</v>
+        <v>9.673685499999999</v>
       </c>
       <c r="H5">
-        <v>29.944832</v>
+        <v>19.347371</v>
       </c>
       <c r="I5">
-        <v>0.1033656722518704</v>
+        <v>0.115977165622779</v>
       </c>
       <c r="J5">
-        <v>0.08332290573803897</v>
+        <v>0.09051257664205575</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.4121773333333333</v>
+        <v>0.6111180000000001</v>
       </c>
       <c r="N5">
-        <v>1.236532</v>
+        <v>1.222236</v>
       </c>
       <c r="O5">
-        <v>0.001823131339879293</v>
+        <v>0.001324896790640531</v>
       </c>
       <c r="P5">
-        <v>0.001824127823450168</v>
+        <v>0.000883826080990197</v>
       </c>
       <c r="Q5">
-        <v>6.171290500437333</v>
+        <v>5.911763335389</v>
       </c>
       <c r="R5">
-        <v>37.027743002624</v>
+        <v>23.647053341556</v>
       </c>
       <c r="S5">
-        <v>0.0001884491965500764</v>
+        <v>0.0001536577745212053</v>
       </c>
       <c r="T5">
-        <v>0.0001519916306874725</v>
+        <v>7.999737589387298E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.972416</v>
+        <v>9.673685499999999</v>
       </c>
       <c r="H6">
-        <v>29.944832</v>
+        <v>19.347371</v>
       </c>
       <c r="I6">
-        <v>0.1033656722518704</v>
+        <v>0.115977165622779</v>
       </c>
       <c r="J6">
-        <v>0.08332290573803897</v>
+        <v>0.09051257664205575</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,33 +809,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>100.6318613333333</v>
+        <v>190.6043296666667</v>
       </c>
       <c r="N6">
-        <v>301.895584</v>
+        <v>571.812989</v>
       </c>
       <c r="O6">
-        <v>0.4451120557830785</v>
+        <v>0.4132279930513526</v>
       </c>
       <c r="P6">
-        <v>0.4453553442621278</v>
+        <v>0.4134907113905666</v>
       </c>
       <c r="Q6">
-        <v>1506.702090736981</v>
+        <v>1843.846340133653</v>
       </c>
       <c r="R6">
-        <v>9040.212544421887</v>
+        <v>11063.07804080192</v>
       </c>
       <c r="S6">
-        <v>0.04600930687342997</v>
+        <v>0.04792501139008529</v>
       </c>
       <c r="T6">
-        <v>0.03710830136988516</v>
+        <v>0.03742610970551682</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>40.41312266666667</v>
+        <v>9.673685499999999</v>
       </c>
       <c r="H7">
-        <v>121.239368</v>
+        <v>19.347371</v>
       </c>
       <c r="I7">
-        <v>0.2790017050179012</v>
+        <v>0.115977165622779</v>
       </c>
       <c r="J7">
-        <v>0.3373542530344942</v>
+        <v>0.09051257664205575</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.370512</v>
+        <v>109.381785</v>
       </c>
       <c r="N7">
-        <v>0.741024</v>
+        <v>328.145355</v>
       </c>
       <c r="O7">
-        <v>0.001638838393995521</v>
+        <v>0.2371384510046057</v>
       </c>
       <c r="P7">
-        <v>0.00109315609805839</v>
+        <v>0.2372892167345643</v>
       </c>
       <c r="Q7">
-        <v>14.973546905472</v>
+        <v>1058.124987518617</v>
       </c>
       <c r="R7">
-        <v>89.84128143283201</v>
+        <v>6348.749925111704</v>
       </c>
       <c r="S7">
-        <v>0.0004572387061735493</v>
+        <v>0.02750264540769041</v>
       </c>
       <c r="T7">
-        <v>0.0003687808589105905</v>
+        <v>0.02147765841602063</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>40.41312266666667</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H8">
         <v>121.239368</v>
       </c>
       <c r="I8">
-        <v>0.2790017050179012</v>
+        <v>0.484510212870336</v>
       </c>
       <c r="J8">
-        <v>0.3373542530344942</v>
+        <v>0.5671926996248948</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.01356733333333333</v>
+        <v>0.2680845</v>
       </c>
       <c r="N8">
-        <v>0.040702</v>
+        <v>0.536169</v>
       </c>
       <c r="O8">
-        <v>6.001065220776088E-05</v>
+        <v>0.0005812041106144338</v>
       </c>
       <c r="P8">
-        <v>6.004345271296557E-05</v>
+        <v>0.0003877157488557307</v>
       </c>
       <c r="Q8">
-        <v>0.5482983062595556</v>
+        <v>10.834131783532</v>
       </c>
       <c r="R8">
-        <v>4.934684756335999</v>
+        <v>65.00479070119199</v>
       </c>
       <c r="S8">
-        <v>1.674307428520156E-05</v>
+        <v>0.0002815993273549137</v>
       </c>
       <c r="T8">
-        <v>2.025591413959447E-05</v>
+        <v>0.0002199095422805696</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>40.41312266666667</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H9">
         <v>121.239368</v>
       </c>
       <c r="I9">
-        <v>0.2790017050179012</v>
+        <v>0.484510212870336</v>
       </c>
       <c r="J9">
-        <v>0.3373542530344942</v>
+        <v>0.5671926996248948</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>124.6539663333333</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="N9">
-        <v>373.961899</v>
+        <v>0.040702</v>
       </c>
       <c r="O9">
-        <v>0.5513659638308389</v>
+        <v>2.941382252017391E-05</v>
       </c>
       <c r="P9">
-        <v>0.5516673283636506</v>
+        <v>2.943252297302894E-05</v>
       </c>
       <c r="Q9">
-        <v>5037.656032315537</v>
+        <v>0.5482983062595554</v>
       </c>
       <c r="R9">
-        <v>45338.90429083983</v>
+        <v>4.934684756336</v>
       </c>
       <c r="S9">
-        <v>0.1538320439976425</v>
+        <v>1.425129741057974E-05</v>
       </c>
       <c r="T9">
-        <v>0.1861073194836544</v>
+        <v>1.669391216184402E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>40.41312266666667</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H10">
         <v>121.239368</v>
       </c>
       <c r="I10">
-        <v>0.2790017050179012</v>
+        <v>0.484510212870336</v>
       </c>
       <c r="J10">
-        <v>0.3373542530344942</v>
+        <v>0.5671926996248948</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4121773333333333</v>
+        <v>160.3781766666667</v>
       </c>
       <c r="N10">
-        <v>1.236532</v>
+        <v>481.13453</v>
       </c>
       <c r="O10">
-        <v>0.001823131339879293</v>
+        <v>0.3476980412202665</v>
       </c>
       <c r="P10">
-        <v>0.001824127823450168</v>
+        <v>0.34791909752205</v>
       </c>
       <c r="Q10">
-        <v>16.65737313241955</v>
+        <v>6481.382926686338</v>
       </c>
       <c r="R10">
-        <v>149.916358191776</v>
+        <v>58332.44634017704</v>
       </c>
       <c r="S10">
-        <v>0.0005086567522978935</v>
+        <v>0.1684632519662302</v>
       </c>
       <c r="T10">
-        <v>0.0006153772793194691</v>
+        <v>0.1973371721745886</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,51 +1101,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>40.41312266666667</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H11">
         <v>121.239368</v>
       </c>
       <c r="I11">
-        <v>0.2790017050179012</v>
+        <v>0.484510212870336</v>
       </c>
       <c r="J11">
-        <v>0.3373542530344942</v>
+        <v>0.5671926996248948</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>100.6318613333333</v>
+        <v>0.6111180000000001</v>
       </c>
       <c r="N11">
-        <v>301.895584</v>
+        <v>1.222236</v>
       </c>
       <c r="O11">
-        <v>0.4451120557830785</v>
+        <v>0.001324896790640531</v>
       </c>
       <c r="P11">
-        <v>0.4453553442621278</v>
+        <v>0.000883826080990197</v>
       </c>
       <c r="Q11">
-        <v>4066.84775623899</v>
+        <v>24.697186697808</v>
       </c>
       <c r="R11">
-        <v>36601.62980615091</v>
+        <v>148.183120186848</v>
       </c>
       <c r="S11">
-        <v>0.124187022487502</v>
+        <v>0.0006419260260644689</v>
       </c>
       <c r="T11">
-        <v>0.1502425194984701</v>
+        <v>0.0005012997008757207</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,51 +1163,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.007042333333334</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H12">
-        <v>15.021127</v>
+        <v>121.239368</v>
       </c>
       <c r="I12">
-        <v>0.03456732011577651</v>
+        <v>0.484510212870336</v>
       </c>
       <c r="J12">
-        <v>0.04179699352128982</v>
+        <v>0.5671926996248948</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.370512</v>
+        <v>190.6043296666667</v>
       </c>
       <c r="N12">
-        <v>0.741024</v>
+        <v>571.812989</v>
       </c>
       <c r="O12">
-        <v>0.001638838393995521</v>
+        <v>0.4132279930513526</v>
       </c>
       <c r="P12">
-        <v>0.00109315609805839</v>
+        <v>0.4134907113905666</v>
       </c>
       <c r="Q12">
-        <v>1.855169269008</v>
+        <v>7702.916155616771</v>
       </c>
       <c r="R12">
-        <v>11.131015614048</v>
+        <v>69326.24540055095</v>
       </c>
       <c r="S12">
-        <v>5.665025138326825E-05</v>
+        <v>0.2002131828772926</v>
       </c>
       <c r="T12">
-        <v>4.5690638348305E-05</v>
+        <v>0.2345289128634337</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.007042333333334</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H13">
-        <v>15.021127</v>
+        <v>121.239368</v>
       </c>
       <c r="I13">
-        <v>0.03456732011577651</v>
+        <v>0.484510212870336</v>
       </c>
       <c r="J13">
-        <v>0.04179699352128982</v>
+        <v>0.5671926996248948</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.01356733333333333</v>
+        <v>109.381785</v>
       </c>
       <c r="N13">
-        <v>0.040702</v>
+        <v>328.145355</v>
       </c>
       <c r="O13">
-        <v>6.001065220776088E-05</v>
+        <v>0.2371384510046057</v>
       </c>
       <c r="P13">
-        <v>6.004345271296557E-05</v>
+        <v>0.2372892167345643</v>
       </c>
       <c r="Q13">
-        <v>0.06793221235044444</v>
+        <v>4420.459494703959</v>
       </c>
       <c r="R13">
-        <v>0.6113899111539999</v>
+        <v>39784.13545233563</v>
       </c>
       <c r="S13">
-        <v>2.074407425222201E-06</v>
+        <v>0.1148960013759832</v>
       </c>
       <c r="T13">
-        <v>2.509635804039694E-06</v>
+        <v>0.1345887114315543</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.007042333333334</v>
+        <v>1.927632333333333</v>
       </c>
       <c r="H14">
-        <v>15.021127</v>
+        <v>5.782896999999999</v>
       </c>
       <c r="I14">
-        <v>0.03456732011577651</v>
+        <v>0.0231102545542569</v>
       </c>
       <c r="J14">
-        <v>0.04179699352128982</v>
+        <v>0.02705405855532591</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>124.6539663333333</v>
+        <v>0.2680845</v>
       </c>
       <c r="N14">
-        <v>373.961899</v>
+        <v>0.536169</v>
       </c>
       <c r="O14">
-        <v>0.5513659638308389</v>
+        <v>0.0005812041106144338</v>
       </c>
       <c r="P14">
-        <v>0.5516673283636506</v>
+        <v>0.0003877157488557307</v>
       </c>
       <c r="Q14">
-        <v>624.1476864489082</v>
+        <v>0.5167683502654999</v>
       </c>
       <c r="R14">
-        <v>5617.329178040173</v>
+        <v>3.100610101593</v>
       </c>
       <c r="S14">
-        <v>0.01905924377268426</v>
+        <v>1.343177494428005E-05</v>
       </c>
       <c r="T14">
-        <v>0.02305803574952277</v>
+        <v>1.048928457236497E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.007042333333334</v>
+        <v>1.927632333333333</v>
       </c>
       <c r="H15">
-        <v>15.021127</v>
+        <v>5.782896999999999</v>
       </c>
       <c r="I15">
-        <v>0.03456732011577651</v>
+        <v>0.0231102545542569</v>
       </c>
       <c r="J15">
-        <v>0.04179699352128982</v>
+        <v>0.02705405855532591</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.4121773333333333</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="N15">
-        <v>1.236532</v>
+        <v>0.040702</v>
       </c>
       <c r="O15">
-        <v>0.001823131339879293</v>
+        <v>2.941382252017391E-05</v>
       </c>
       <c r="P15">
-        <v>0.001824127823450168</v>
+        <v>2.943252297302894E-05</v>
       </c>
       <c r="Q15">
-        <v>2.063789356840445</v>
+        <v>0.02615283041044444</v>
       </c>
       <c r="R15">
-        <v>18.574104211564</v>
+        <v>0.235375473694</v>
       </c>
       <c r="S15">
-        <v>6.302076463871208E-05</v>
+        <v>6.797609258549531E-07</v>
       </c>
       <c r="T15">
-        <v>7.624305881875117E-05</v>
+        <v>7.962691999432997E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.007042333333334</v>
+        <v>1.927632333333333</v>
       </c>
       <c r="H16">
-        <v>15.021127</v>
+        <v>5.782896999999999</v>
       </c>
       <c r="I16">
-        <v>0.03456732011577651</v>
+        <v>0.0231102545542569</v>
       </c>
       <c r="J16">
-        <v>0.04179699352128982</v>
+        <v>0.02705405855532591</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,95 +1429,95 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>100.6318613333333</v>
+        <v>160.3781766666667</v>
       </c>
       <c r="N16">
-        <v>301.895584</v>
+        <v>481.13453</v>
       </c>
       <c r="O16">
-        <v>0.4451120557830785</v>
+        <v>0.3476980412202665</v>
       </c>
       <c r="P16">
-        <v>0.4453553442621278</v>
+        <v>0.34791909752205</v>
       </c>
       <c r="Q16">
-        <v>503.8679897781298</v>
+        <v>309.1501589037122</v>
       </c>
       <c r="R16">
-        <v>4534.811908003167</v>
+        <v>2782.35143013341</v>
       </c>
       <c r="S16">
-        <v>0.01538633091964505</v>
+        <v>0.008035390240616867</v>
       </c>
       <c r="T16">
-        <v>0.01861451443879595</v>
+        <v>0.009412623636877686</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>60.1916805</v>
+        <v>1.927632333333333</v>
       </c>
       <c r="H17">
-        <v>120.383361</v>
+        <v>5.782896999999999</v>
       </c>
       <c r="I17">
-        <v>0.4155477325003728</v>
+        <v>0.0231102545542569</v>
       </c>
       <c r="J17">
-        <v>0.33497237323059</v>
+        <v>0.02705405855532591</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M17">
-        <v>0.370512</v>
+        <v>0.6111180000000001</v>
       </c>
       <c r="N17">
-        <v>0.741024</v>
+        <v>1.222236</v>
       </c>
       <c r="O17">
-        <v>0.001638838393995521</v>
+        <v>0.001324896790640531</v>
       </c>
       <c r="P17">
-        <v>0.00109315609805839</v>
+        <v>0.000883826080990197</v>
       </c>
       <c r="Q17">
-        <v>22.301739925416</v>
+        <v>1.178010816282</v>
       </c>
       <c r="R17">
-        <v>89.20695970166399</v>
+        <v>7.068064897692</v>
       </c>
       <c r="S17">
-        <v>0.0006810155785593915</v>
+        <v>3.061870208982069E-05</v>
       </c>
       <c r="T17">
-        <v>0.0003661770924781106</v>
+        <v>2.391108254783301E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>60.1916805</v>
+        <v>1.927632333333333</v>
       </c>
       <c r="H18">
-        <v>120.383361</v>
+        <v>5.782896999999999</v>
       </c>
       <c r="I18">
-        <v>0.4155477325003728</v>
+        <v>0.0231102545542569</v>
       </c>
       <c r="J18">
-        <v>0.33497237323059</v>
+        <v>0.02705405855532591</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.01356733333333333</v>
+        <v>190.6043296666667</v>
       </c>
       <c r="N18">
-        <v>0.040702</v>
+        <v>571.812989</v>
       </c>
       <c r="O18">
-        <v>6.001065220776088E-05</v>
+        <v>0.4132279930513526</v>
       </c>
       <c r="P18">
-        <v>6.004345271296557E-05</v>
+        <v>0.4134907113905666</v>
       </c>
       <c r="Q18">
-        <v>0.8166405932369999</v>
+        <v>367.4150687387925</v>
       </c>
       <c r="R18">
-        <v>4.899843559421999</v>
+        <v>3306.735618649133</v>
       </c>
       <c r="S18">
-        <v>2.493729045080352E-05</v>
+        <v>0.009549804108361459</v>
       </c>
       <c r="T18">
-        <v>2.011289785222078E-05</v>
+        <v>0.01118660191804375</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,25 +1588,25 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>60.1916805</v>
+        <v>1.927632333333333</v>
       </c>
       <c r="H19">
-        <v>120.383361</v>
+        <v>5.782896999999999</v>
       </c>
       <c r="I19">
-        <v>0.4155477325003728</v>
+        <v>0.0231102545542569</v>
       </c>
       <c r="J19">
-        <v>0.33497237323059</v>
+        <v>0.02705405855532591</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>124.6539663333333</v>
+        <v>109.381785</v>
       </c>
       <c r="N19">
-        <v>373.961899</v>
+        <v>328.145355</v>
       </c>
       <c r="O19">
-        <v>0.5513659638308389</v>
+        <v>0.2371384510046057</v>
       </c>
       <c r="P19">
-        <v>0.5516673283636506</v>
+        <v>0.2372892167345643</v>
       </c>
       <c r="Q19">
-        <v>7503.131714593756</v>
+        <v>210.847865443715</v>
       </c>
       <c r="R19">
-        <v>45018.79028756254</v>
+        <v>1897.630788993435</v>
       </c>
       <c r="S19">
-        <v>0.2291188760477877</v>
+        <v>0.005480329967318615</v>
       </c>
       <c r="T19">
-        <v>0.1847933142157512</v>
+        <v>0.006419636364084321</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>60.1916805</v>
+        <v>26.8036935</v>
       </c>
       <c r="H20">
-        <v>120.383361</v>
+        <v>53.607387</v>
       </c>
       <c r="I20">
-        <v>0.4155477325003728</v>
+        <v>0.3213476808142776</v>
       </c>
       <c r="J20">
-        <v>0.33497237323059</v>
+        <v>0.2507908037954016</v>
       </c>
       <c r="K20">
         <v>2</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.4121773333333333</v>
+        <v>0.2680845</v>
       </c>
       <c r="N20">
-        <v>1.236532</v>
+        <v>0.536169</v>
       </c>
       <c r="O20">
-        <v>0.001823131339879293</v>
+        <v>0.0005812041106144338</v>
       </c>
       <c r="P20">
-        <v>0.001824127823450168</v>
+        <v>0.0003877157488557307</v>
       </c>
       <c r="Q20">
-        <v>24.809646357342</v>
+        <v>7.185654770100751</v>
       </c>
       <c r="R20">
-        <v>148.857878144052</v>
+        <v>28.742619080403</v>
       </c>
       <c r="S20">
-        <v>0.0007575980943372067</v>
+        <v>0.0001867685930256732</v>
       </c>
       <c r="T20">
-        <v>0.0006110324260970535</v>
+        <v>9.723554429966477E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>60.1916805</v>
+        <v>26.8036935</v>
       </c>
       <c r="H21">
-        <v>120.383361</v>
+        <v>53.607387</v>
       </c>
       <c r="I21">
-        <v>0.4155477325003728</v>
+        <v>0.3213476808142776</v>
       </c>
       <c r="J21">
-        <v>0.33497237323059</v>
+        <v>0.2507908037954016</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>100.6318613333333</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="N21">
-        <v>301.895584</v>
+        <v>0.040702</v>
       </c>
       <c r="O21">
-        <v>0.4451120557830785</v>
+        <v>2.941382252017391E-05</v>
       </c>
       <c r="P21">
-        <v>0.4453553442621278</v>
+        <v>2.943252297302894E-05</v>
       </c>
       <c r="Q21">
-        <v>6057.200845496303</v>
+        <v>0.363654644279</v>
       </c>
       <c r="R21">
-        <v>36343.20507297782</v>
+        <v>2.181927865674</v>
       </c>
       <c r="S21">
-        <v>0.1849653054892377</v>
+        <v>9.452063650740654E-06</v>
       </c>
       <c r="T21">
-        <v>0.1491817365984114</v>
+        <v>7.381406094132551E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>11.74303333333333</v>
+        <v>26.8036935</v>
       </c>
       <c r="H22">
-        <v>35.2291</v>
+        <v>53.607387</v>
       </c>
       <c r="I22">
-        <v>0.08107085287879547</v>
+        <v>0.3213476808142776</v>
       </c>
       <c r="J22">
-        <v>0.09802663038937567</v>
+        <v>0.2507908037954016</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.370512</v>
+        <v>160.3781766666667</v>
       </c>
       <c r="N22">
-        <v>0.741024</v>
+        <v>481.13453</v>
       </c>
       <c r="O22">
-        <v>0.001638838393995521</v>
+        <v>0.3476980412202665</v>
       </c>
       <c r="P22">
-        <v>0.00109315609805839</v>
+        <v>0.34791909752205</v>
       </c>
       <c r="Q22">
-        <v>4.350934766400001</v>
+        <v>4298.727491462186</v>
       </c>
       <c r="R22">
-        <v>26.1056085984</v>
+        <v>25792.36494877311</v>
       </c>
       <c r="S22">
-        <v>0.0001328620263317323</v>
+        <v>0.1117319591697997</v>
       </c>
       <c r="T22">
-        <v>0.0001071584087822619</v>
+        <v>0.08725491012332566</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,87 +1836,87 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>11.74303333333333</v>
+        <v>26.8036935</v>
       </c>
       <c r="H23">
-        <v>35.2291</v>
+        <v>53.607387</v>
       </c>
       <c r="I23">
-        <v>0.08107085287879547</v>
+        <v>0.3213476808142776</v>
       </c>
       <c r="J23">
-        <v>0.09802663038937567</v>
+        <v>0.2507908037954016</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M23">
-        <v>0.01356733333333333</v>
+        <v>0.6111180000000001</v>
       </c>
       <c r="N23">
-        <v>0.040702</v>
+        <v>1.222236</v>
       </c>
       <c r="O23">
-        <v>6.001065220776088E-05</v>
+        <v>0.001324896790640531</v>
       </c>
       <c r="P23">
-        <v>6.004345271296557E-05</v>
+        <v>0.000883826080990197</v>
       </c>
       <c r="Q23">
-        <v>0.1593216475777778</v>
+        <v>16.380219564333</v>
       </c>
       <c r="R23">
-        <v>1.4338948282</v>
+        <v>65.52087825733201</v>
       </c>
       <c r="S23">
-        <v>4.865114756295945E-06</v>
+        <v>0.0004257525109906142</v>
       </c>
       <c r="T23">
-        <v>5.885857346395832E-06</v>
+        <v>0.0002216554532668712</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>11.74303333333333</v>
+        <v>26.8036935</v>
       </c>
       <c r="H24">
-        <v>35.2291</v>
+        <v>53.607387</v>
       </c>
       <c r="I24">
-        <v>0.08107085287879547</v>
+        <v>0.3213476808142776</v>
       </c>
       <c r="J24">
-        <v>0.09802663038937567</v>
+        <v>0.2507908037954016</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,33 +1925,33 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>124.6539663333333</v>
+        <v>190.6043296666667</v>
       </c>
       <c r="N24">
-        <v>373.961899</v>
+        <v>571.812989</v>
       </c>
       <c r="O24">
-        <v>0.5513659638308389</v>
+        <v>0.4132279930513526</v>
       </c>
       <c r="P24">
-        <v>0.5516673283636506</v>
+        <v>0.4134907113905666</v>
       </c>
       <c r="Q24">
-        <v>1463.815681784545</v>
+        <v>5108.900032158291</v>
       </c>
       <c r="R24">
-        <v>13174.3411360609</v>
+        <v>30653.40019294975</v>
       </c>
       <c r="S24">
-        <v>0.0446997089361052</v>
+        <v>0.1327898572145906</v>
       </c>
       <c r="T24">
-        <v>0.05407808929539792</v>
+        <v>0.1036996678715726</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>11.74303333333333</v>
+        <v>26.8036935</v>
       </c>
       <c r="H25">
-        <v>35.2291</v>
+        <v>53.607387</v>
       </c>
       <c r="I25">
-        <v>0.08107085287879547</v>
+        <v>0.3213476808142776</v>
       </c>
       <c r="J25">
-        <v>0.09802663038937567</v>
+        <v>0.2507908037954016</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.4121773333333333</v>
+        <v>109.381785</v>
       </c>
       <c r="N25">
-        <v>1.236532</v>
+        <v>328.145355</v>
       </c>
       <c r="O25">
-        <v>0.001823131339879293</v>
+        <v>0.2371384510046057</v>
       </c>
       <c r="P25">
-        <v>0.001824127823450168</v>
+        <v>0.2372892167345643</v>
       </c>
       <c r="Q25">
-        <v>4.840212164577778</v>
+        <v>2931.835839622897</v>
       </c>
       <c r="R25">
-        <v>43.5619094812</v>
+        <v>17591.01503773739</v>
       </c>
       <c r="S25">
-        <v>0.0001478028126340754</v>
+        <v>0.07620389126222023</v>
       </c>
       <c r="T25">
-        <v>0.000178813103932326</v>
+        <v>0.05950995339684264</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,51 +2031,51 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>11.74303333333333</v>
+        <v>2.854607333333333</v>
       </c>
       <c r="H26">
-        <v>35.2291</v>
+        <v>8.563822</v>
       </c>
       <c r="I26">
-        <v>0.08107085287879547</v>
+        <v>0.03422369555905032</v>
       </c>
       <c r="J26">
-        <v>0.09802663038937567</v>
+        <v>0.04006402705173345</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>100.6318613333333</v>
+        <v>0.2680845</v>
       </c>
       <c r="N26">
-        <v>301.895584</v>
+        <v>0.536169</v>
       </c>
       <c r="O26">
-        <v>0.4451120557830785</v>
+        <v>0.0005812041106144338</v>
       </c>
       <c r="P26">
-        <v>0.4453553442621278</v>
+        <v>0.0003877157488557307</v>
       </c>
       <c r="Q26">
-        <v>1181.723302032711</v>
+        <v>0.7652759796530001</v>
       </c>
       <c r="R26">
-        <v>10635.5097182944</v>
+        <v>4.591655877918</v>
       </c>
       <c r="S26">
-        <v>0.03608561398896816</v>
+        <v>1.989095253933699E-05</v>
       </c>
       <c r="T26">
-        <v>0.04365668372391675</v>
+        <v>1.553345425053909E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,51 +2093,51 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>12.521722</v>
+        <v>2.854607333333333</v>
       </c>
       <c r="H27">
-        <v>37.565166</v>
+        <v>8.563822</v>
       </c>
       <c r="I27">
-        <v>0.0864467172352836</v>
+        <v>0.03422369555905032</v>
       </c>
       <c r="J27">
-        <v>0.1045268440862112</v>
+        <v>0.04006402705173345</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M27">
-        <v>0.370512</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="N27">
-        <v>0.741024</v>
+        <v>0.040702</v>
       </c>
       <c r="O27">
-        <v>0.001638838393995521</v>
+        <v>2.941382252017391E-05</v>
       </c>
       <c r="P27">
-        <v>0.00109315609805839</v>
+        <v>2.943252297302894E-05</v>
       </c>
       <c r="Q27">
-        <v>4.639448261664001</v>
+        <v>0.03872940922711111</v>
       </c>
       <c r="R27">
-        <v>27.836689569984</v>
+        <v>0.348564683044</v>
       </c>
       <c r="S27">
-        <v>0.0001416721992400571</v>
+        <v>1.00664970715837E-06</v>
       </c>
       <c r="T27">
-        <v>0.0001142641570236403</v>
+        <v>1.179185396592198E-06</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,51 +2155,51 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>12.521722</v>
+        <v>2.854607333333333</v>
       </c>
       <c r="H28">
-        <v>37.565166</v>
+        <v>8.563822</v>
       </c>
       <c r="I28">
-        <v>0.0864467172352836</v>
+        <v>0.03422369555905032</v>
       </c>
       <c r="J28">
-        <v>0.1045268440862112</v>
+        <v>0.04006402705173345</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.01356733333333333</v>
+        <v>160.3781766666667</v>
       </c>
       <c r="N28">
-        <v>0.040702</v>
+        <v>481.13453</v>
       </c>
       <c r="O28">
-        <v>6.001065220776088E-05</v>
+        <v>0.3476980412202665</v>
       </c>
       <c r="P28">
-        <v>6.004345271296557E-05</v>
+        <v>0.34791909752205</v>
       </c>
       <c r="Q28">
-        <v>0.1698863762813334</v>
+        <v>457.8167192192956</v>
       </c>
       <c r="R28">
-        <v>1.528977386532</v>
+        <v>4120.350472973661</v>
       </c>
       <c r="S28">
-        <v>5.187723882509253E-06</v>
+        <v>0.01189951190920053</v>
       </c>
       <c r="T28">
-        <v>6.276152620125945E-06</v>
+        <v>0.0139390401349381</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,51 +2217,51 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>12.521722</v>
+        <v>2.854607333333333</v>
       </c>
       <c r="H29">
-        <v>37.565166</v>
+        <v>8.563822</v>
       </c>
       <c r="I29">
-        <v>0.0864467172352836</v>
+        <v>0.03422369555905032</v>
       </c>
       <c r="J29">
-        <v>0.1045268440862112</v>
+        <v>0.04006402705173345</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M29">
-        <v>124.6539663333333</v>
+        <v>0.6111180000000001</v>
       </c>
       <c r="N29">
-        <v>373.961899</v>
+        <v>1.222236</v>
       </c>
       <c r="O29">
-        <v>0.5513659638308389</v>
+        <v>0.001324896790640531</v>
       </c>
       <c r="P29">
-        <v>0.5516673283636506</v>
+        <v>0.000883826080990197</v>
       </c>
       <c r="Q29">
-        <v>1560.88231262336</v>
+        <v>1.744501924332</v>
       </c>
       <c r="R29">
-        <v>14047.94081361024</v>
+        <v>10.467011545992</v>
       </c>
       <c r="S29">
-        <v>0.04766377756844414</v>
+        <v>4.534286441004438E-05</v>
       </c>
       <c r="T29">
-        <v>0.05766404481932397</v>
+        <v>3.540963201781881E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2279,51 +2279,51 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>12.521722</v>
+        <v>2.854607333333333</v>
       </c>
       <c r="H30">
-        <v>37.565166</v>
+        <v>8.563822</v>
       </c>
       <c r="I30">
-        <v>0.0864467172352836</v>
+        <v>0.03422369555905032</v>
       </c>
       <c r="J30">
-        <v>0.1045268440862112</v>
+        <v>0.04006402705173345</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.4121773333333333</v>
+        <v>190.6043296666667</v>
       </c>
       <c r="N30">
-        <v>1.236532</v>
+        <v>571.812989</v>
       </c>
       <c r="O30">
-        <v>0.001823131339879293</v>
+        <v>0.4132279930513526</v>
       </c>
       <c r="P30">
-        <v>0.001824127823450168</v>
+        <v>0.4134907113905666</v>
       </c>
       <c r="Q30">
-        <v>5.161169982701335</v>
+        <v>544.100517231551</v>
       </c>
       <c r="R30">
-        <v>46.45052984431201</v>
+        <v>4896.904655083958</v>
       </c>
       <c r="S30">
-        <v>0.000157603719421329</v>
+        <v>0.01414218903066685</v>
       </c>
       <c r="T30">
-        <v>0.0001906703245950954</v>
+        <v>0.01656610304679217</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>12.521722</v>
+        <v>2.854607333333333</v>
       </c>
       <c r="H31">
-        <v>37.565166</v>
+        <v>8.563822</v>
       </c>
       <c r="I31">
-        <v>0.0864467172352836</v>
+        <v>0.03422369555905032</v>
       </c>
       <c r="J31">
-        <v>0.1045268440862112</v>
+        <v>0.04006402705173345</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,400 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>100.6318613333333</v>
+        <v>109.381785</v>
       </c>
       <c r="N31">
-        <v>301.895584</v>
+        <v>328.145355</v>
       </c>
       <c r="O31">
-        <v>0.4451120557830785</v>
+        <v>0.2371384510046057</v>
       </c>
       <c r="P31">
-        <v>0.4453553442621278</v>
+        <v>0.2372892167345643</v>
       </c>
       <c r="Q31">
-        <v>1260.08419195855</v>
+        <v>312.24204559409</v>
       </c>
       <c r="R31">
-        <v>11340.75772762695</v>
+        <v>2810.17841034681</v>
       </c>
       <c r="S31">
-        <v>0.03847847602429557</v>
+        <v>0.008115754152526395</v>
       </c>
       <c r="T31">
-        <v>0.04655158863264833</v>
+        <v>0.009506761598338225</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1.737518333333333</v>
+      </c>
+      <c r="H32">
+        <v>5.212555</v>
+      </c>
+      <c r="I32">
+        <v>0.0208309905793004</v>
+      </c>
+      <c r="J32">
+        <v>0.02438583433058843</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.2680845</v>
+      </c>
+      <c r="N32">
+        <v>0.536169</v>
+      </c>
+      <c r="O32">
+        <v>0.0005812041106144338</v>
+      </c>
+      <c r="P32">
+        <v>0.0003877157488557307</v>
+      </c>
+      <c r="Q32">
+        <v>0.4658017336325</v>
+      </c>
+      <c r="R32">
+        <v>2.794810401795</v>
+      </c>
+      <c r="S32">
+        <v>1.210705735285994E-05</v>
+      </c>
+      <c r="T32">
+        <v>9.454772018955879E-06</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1.737518333333333</v>
+      </c>
+      <c r="H33">
+        <v>5.212555</v>
+      </c>
+      <c r="I33">
+        <v>0.0208309905793004</v>
+      </c>
+      <c r="J33">
+        <v>0.02438583433058843</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.01356733333333333</v>
+      </c>
+      <c r="N33">
+        <v>0.040702</v>
+      </c>
+      <c r="O33">
+        <v>2.941382252017391E-05</v>
+      </c>
+      <c r="P33">
+        <v>2.943252297302894E-05</v>
+      </c>
+      <c r="Q33">
+        <v>0.02357349040111111</v>
+      </c>
+      <c r="R33">
+        <v>0.21216141361</v>
+      </c>
+      <c r="S33">
+        <v>6.127190598189567E-07</v>
+      </c>
+      <c r="T33">
+        <v>7.177366291515216E-07</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1.737518333333333</v>
+      </c>
+      <c r="H34">
+        <v>5.212555</v>
+      </c>
+      <c r="I34">
+        <v>0.0208309905793004</v>
+      </c>
+      <c r="J34">
+        <v>0.02438583433058843</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>160.3781766666667</v>
+      </c>
+      <c r="N34">
+        <v>481.13453</v>
+      </c>
+      <c r="O34">
+        <v>0.3476980412202665</v>
+      </c>
+      <c r="P34">
+        <v>0.34791909752205</v>
+      </c>
+      <c r="Q34">
+        <v>278.6600222249056</v>
+      </c>
+      <c r="R34">
+        <v>2507.94020002415</v>
+      </c>
+      <c r="S34">
+        <v>0.007242894621100576</v>
+      </c>
+      <c r="T34">
+        <v>0.008484297472620552</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1.737518333333333</v>
+      </c>
+      <c r="H35">
+        <v>5.212555</v>
+      </c>
+      <c r="I35">
+        <v>0.0208309905793004</v>
+      </c>
+      <c r="J35">
+        <v>0.02438583433058843</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.5</v>
+      </c>
+      <c r="M35">
+        <v>0.6111180000000001</v>
+      </c>
+      <c r="N35">
+        <v>1.222236</v>
+      </c>
+      <c r="O35">
+        <v>0.001324896790640531</v>
+      </c>
+      <c r="P35">
+        <v>0.000883826080990197</v>
+      </c>
+      <c r="Q35">
+        <v>1.06182872883</v>
+      </c>
+      <c r="R35">
+        <v>6.370972372980001</v>
+      </c>
+      <c r="S35">
+        <v>2.759891256437825E-05</v>
+      </c>
+      <c r="T35">
+        <v>2.155283638808018E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1.737518333333333</v>
+      </c>
+      <c r="H36">
+        <v>5.212555</v>
+      </c>
+      <c r="I36">
+        <v>0.0208309905793004</v>
+      </c>
+      <c r="J36">
+        <v>0.02438583433058843</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>190.6043296666667</v>
+      </c>
+      <c r="N36">
+        <v>571.812989</v>
+      </c>
+      <c r="O36">
+        <v>0.4132279930513526</v>
+      </c>
+      <c r="P36">
+        <v>0.4134907113905666</v>
+      </c>
+      <c r="Q36">
+        <v>331.1785172085439</v>
+      </c>
+      <c r="R36">
+        <v>2980.606654876895</v>
+      </c>
+      <c r="S36">
+        <v>0.008607948430355939</v>
+      </c>
+      <c r="T36">
+        <v>0.01008331598520751</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1.737518333333333</v>
+      </c>
+      <c r="H37">
+        <v>5.212555</v>
+      </c>
+      <c r="I37">
+        <v>0.0208309905793004</v>
+      </c>
+      <c r="J37">
+        <v>0.02438583433058843</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>109.381785</v>
+      </c>
+      <c r="N37">
+        <v>328.145355</v>
+      </c>
+      <c r="O37">
+        <v>0.2371384510046057</v>
+      </c>
+      <c r="P37">
+        <v>0.2372892167345643</v>
+      </c>
+      <c r="Q37">
+        <v>190.052856770225</v>
+      </c>
+      <c r="R37">
+        <v>1710.475710932025</v>
+      </c>
+      <c r="S37">
+        <v>0.004939828838866831</v>
+      </c>
+      <c r="T37">
+        <v>0.005786495527724176</v>
       </c>
     </row>
   </sheetData>
